--- a/NformTester/NformTester/Keywordscripts/600.40.20.40_UserAndGroupsAutoLogout.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.40_UserAndGroupsAutoLogout.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7206" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7214" uniqueCount="818">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3633,10 +3633,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3689,6 +3685,22 @@
   <si>
     <t>Checked</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4645,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4716,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4735,7 +4747,7 @@
         <v>754</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4776,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>191</v>
@@ -4861,7 +4873,7 @@
         <v>759</v>
       </c>
       <c r="B7" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -4891,7 +4903,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4">
@@ -4939,10 +4951,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J9" s="4" t="b">
         <v>0</v>
@@ -4976,10 +4988,10 @@
         <v>7</v>
       </c>
       <c r="H10" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>804</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>805</v>
       </c>
       <c r="J10" s="4" t="b">
         <v>0</v>
@@ -4997,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -5061,10 +5073,10 @@
         <v>7</v>
       </c>
       <c r="H13" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>804</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>805</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
@@ -5096,10 +5108,10 @@
         <v>7</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J14" s="4">
         <v>5</v>
@@ -5220,10 +5232,10 @@
         <v>7</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
@@ -5303,13 +5315,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>803</v>
-      </c>
       <c r="F21" s="19">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -5330,13 +5342,13 @@
         <v>21</v>
       </c>
       <c r="D22" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>803</v>
-      </c>
       <c r="F22" s="19">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -5353,7 +5365,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>786</v>
+        <v>816</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>0</v>
@@ -5378,18 +5390,18 @@
         <v>23</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="19" t="s">
+        <v>809</v>
+      </c>
+      <c r="I24" s="20" t="s">
         <v>810</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>811</v>
       </c>
       <c r="J24" s="20" t="b">
         <v>1</v>
@@ -5405,7 +5417,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
@@ -5423,28 +5435,24 @@
       <c r="C26" s="4">
         <v>25</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>791</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>796</v>
-      </c>
+      <c r="D26" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
       <c r="N26" s="12"/>
       <c r="O26" s="11"/>
     </row>
@@ -5453,13 +5461,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>2</v>
@@ -5468,8 +5476,8 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="12"/>
       <c r="O27" s="11"/>
     </row>
@@ -5477,21 +5485,25 @@
       <c r="C28" s="4">
         <v>27</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>797</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="D28" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -5503,18 +5515,18 @@
         <v>28</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>786</v>
+        <v>815</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -5527,17 +5539,19 @@
       <c r="C30" s="4">
         <v>29</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>802</v>
+      <c r="D30" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>803</v>
-      </c>
-      <c r="F30" s="19">
-        <v>45</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="19"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -5550,21 +5564,19 @@
       <c r="C31" s="4">
         <v>30</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>798</v>
+      <c r="D31" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>794</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="14"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -5578,18 +5590,16 @@
         <v>31</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="19"/>
+        <v>802</v>
+      </c>
+      <c r="F32" s="19">
+        <v>6</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5603,18 +5613,20 @@
         <v>32</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="14"/>
+        <v>235</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>794</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -5623,17 +5635,23 @@
       <c r="N33" s="12"/>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="3:15" ht="15">
+    <row r="34" spans="3:15">
       <c r="C34" s="4">
         <v>33</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="D34" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="19"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -5653,14 +5671,12 @@
         <v>248</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="19">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H35" s="14"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -5669,23 +5685,17 @@
       <c r="N35" s="12"/>
       <c r="O35" s="11"/>
     </row>
-    <row r="36" spans="3:15">
+    <row r="36" spans="3:15" ht="15">
       <c r="C36" s="4">
         <v>35</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>786</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="19"/>
+      <c r="D36" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -5704,13 +5714,15 @@
       <c r="E37" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="14"/>
+      <c r="F37" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="19">
+        <v>5</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5724,18 +5736,18 @@
         <v>37</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>95</v>
+        <v>263</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="14"/>
+        <v>137</v>
+      </c>
+      <c r="H38" s="19"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -5748,10 +5760,18 @@
       <c r="C39" s="4">
         <v>38</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="D39" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H39" s="14"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -5765,10 +5785,18 @@
       <c r="C40" s="4">
         <v>39</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="D40" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H40" s="14"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -5820,7 +5848,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="19"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5854,7 +5882,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="H45" s="19"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -5944,12 +5972,12 @@
       <c r="M50" s="4"/>
       <c r="N50" s="12"/>
     </row>
-    <row r="51" spans="3:14" ht="15">
+    <row r="51" spans="3:14">
       <c r="C51" s="4">
         <v>50</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -5976,12 +6004,12 @@
       <c r="M52" s="4"/>
       <c r="N52" s="12"/>
     </row>
-    <row r="53" spans="3:14">
+    <row r="53" spans="3:14" ht="15">
       <c r="C53" s="4">
         <v>52</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -5996,12 +6024,12 @@
       <c r="C54" s="4">
         <v>53</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="14"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -6013,9 +6041,9 @@
         <v>54</v>
       </c>
       <c r="D55" s="13"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -6028,12 +6056,12 @@
       <c r="C56" s="4">
         <v>55</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="14"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -6044,14 +6072,14 @@
       <c r="C57" s="4">
         <v>56</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="12"/>
@@ -6061,14 +6089,14 @@
         <v>57</v>
       </c>
       <c r="D58" s="21"/>
-      <c r="E58" s="19"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
-      <c r="H58" s="19"/>
+      <c r="H58" s="20"/>
       <c r="I58" s="20"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="12"/>
     </row>
@@ -6077,14 +6105,14 @@
         <v>58</v>
       </c>
       <c r="D59" s="21"/>
-      <c r="E59" s="19"/>
+      <c r="E59" s="20"/>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
-      <c r="H59" s="19"/>
+      <c r="H59" s="20"/>
       <c r="I59" s="20"/>
       <c r="J59" s="4"/>
       <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
+      <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="12"/>
     </row>
@@ -6097,8 +6125,8 @@
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="4"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
       <c r="M60" s="4"/>
@@ -6114,7 +6142,7 @@
       <c r="G61" s="20"/>
       <c r="H61" s="19"/>
       <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
+      <c r="J61" s="4"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
       <c r="M61" s="4"/>
@@ -6129,7 +6157,7 @@
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="20"/>
+      <c r="I62" s="19"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
@@ -6193,7 +6221,7 @@
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
+      <c r="I66" s="20"/>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
@@ -6209,7 +6237,7 @@
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
+      <c r="I67" s="20"/>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
       <c r="L67" s="20"/>
@@ -6241,7 +6269,7 @@
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
       <c r="H69" s="19"/>
-      <c r="I69" s="20"/>
+      <c r="I69" s="19"/>
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
@@ -6273,11 +6301,11 @@
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
       <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
+      <c r="I71" s="20"/>
       <c r="J71" s="20"/>
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
+      <c r="M71" s="4"/>
       <c r="N71" s="12"/>
     </row>
     <row r="72" spans="3:14">
@@ -6293,7 +6321,7 @@
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
       <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
+      <c r="M72" s="4"/>
       <c r="N72" s="12"/>
     </row>
     <row r="73" spans="3:14">
@@ -6312,16 +6340,16 @@
       <c r="M73" s="20"/>
       <c r="N73" s="12"/>
     </row>
-    <row r="74" spans="3:14" ht="15">
+    <row r="74" spans="3:14">
       <c r="C74" s="4">
         <v>73</v>
       </c>
-      <c r="D74" s="15"/>
+      <c r="D74" s="21"/>
       <c r="E74" s="19"/>
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="19"/>
-      <c r="I74" s="20"/>
+      <c r="I74" s="19"/>
       <c r="J74" s="20"/>
       <c r="K74" s="20"/>
       <c r="L74" s="20"/>
@@ -6334,26 +6362,26 @@
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
       <c r="H75" s="19"/>
-      <c r="I75" s="4"/>
+      <c r="I75" s="19"/>
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
       <c r="M75" s="20"/>
       <c r="N75" s="12"/>
     </row>
-    <row r="76" spans="3:14">
+    <row r="76" spans="3:14" ht="15">
       <c r="C76" s="4">
         <v>75</v>
       </c>
-      <c r="D76" s="21"/>
+      <c r="D76" s="15"/>
       <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
       <c r="H76" s="19"/>
-      <c r="I76" s="4"/>
+      <c r="I76" s="20"/>
       <c r="J76" s="20"/>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
@@ -6365,11 +6393,11 @@
         <v>76</v>
       </c>
       <c r="D77" s="21"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
       <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
+      <c r="I77" s="4"/>
       <c r="J77" s="20"/>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
@@ -6397,12 +6425,12 @@
         <v>78</v>
       </c>
       <c r="D79" s="21"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
@@ -6413,12 +6441,12 @@
         <v>79</v>
       </c>
       <c r="D80" s="21"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="4"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="20"/>
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
@@ -6429,10 +6457,10 @@
         <v>80</v>
       </c>
       <c r="D81" s="21"/>
-      <c r="E81" s="19"/>
+      <c r="E81" s="20"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
-      <c r="H81" s="19"/>
+      <c r="H81" s="20"/>
       <c r="I81" s="20"/>
       <c r="J81" s="4"/>
       <c r="K81" s="20"/>
@@ -6445,10 +6473,10 @@
         <v>81</v>
       </c>
       <c r="D82" s="21"/>
-      <c r="E82" s="19"/>
+      <c r="E82" s="20"/>
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
-      <c r="H82" s="19"/>
+      <c r="H82" s="20"/>
       <c r="I82" s="20"/>
       <c r="J82" s="4"/>
       <c r="K82" s="20"/>
@@ -6465,8 +6493,8 @@
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
       <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="4"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
       <c r="M83" s="20"/>
@@ -6482,7 +6510,7 @@
       <c r="G84" s="20"/>
       <c r="H84" s="19"/>
       <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
+      <c r="J84" s="4"/>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
       <c r="M84" s="20"/>
@@ -6497,7 +6525,7 @@
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
       <c r="H85" s="19"/>
-      <c r="I85" s="20"/>
+      <c r="I85" s="19"/>
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
@@ -6561,7 +6589,7 @@
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
       <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
+      <c r="I89" s="20"/>
       <c r="J89" s="20"/>
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
@@ -6577,7 +6605,7 @@
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
       <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
+      <c r="I90" s="20"/>
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
       <c r="L90" s="20"/>
@@ -6609,7 +6637,7 @@
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
       <c r="H92" s="19"/>
-      <c r="I92" s="20"/>
+      <c r="I92" s="19"/>
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
@@ -6641,7 +6669,7 @@
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
       <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
+      <c r="I94" s="20"/>
       <c r="J94" s="20"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
@@ -6680,11 +6708,11 @@
       <c r="M96" s="20"/>
       <c r="N96" s="12"/>
     </row>
-    <row r="97" spans="3:14" ht="15">
+    <row r="97" spans="3:14">
       <c r="C97" s="4">
         <v>96</v>
       </c>
-      <c r="D97" s="15"/>
+      <c r="D97" s="21"/>
       <c r="E97" s="19"/>
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
@@ -6700,28 +6728,28 @@
       <c r="C98" s="4">
         <v>97</v>
       </c>
-      <c r="D98" s="18"/>
+      <c r="D98" s="21"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
       <c r="H98" s="19"/>
-      <c r="I98" s="4"/>
+      <c r="I98" s="19"/>
       <c r="J98" s="20"/>
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
       <c r="M98" s="20"/>
       <c r="N98" s="12"/>
     </row>
-    <row r="99" spans="3:14">
+    <row r="99" spans="3:14" ht="15">
       <c r="C99" s="4">
         <v>98</v>
       </c>
-      <c r="D99" s="21"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
       <c r="J99" s="20"/>
       <c r="K99" s="20"/>
       <c r="L99" s="20"/>
@@ -6732,12 +6760,12 @@
       <c r="C100" s="4">
         <v>99</v>
       </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
       <c r="H100" s="19"/>
-      <c r="I100" s="20"/>
+      <c r="I100" s="4"/>
       <c r="J100" s="20"/>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
@@ -6749,11 +6777,11 @@
         <v>100</v>
       </c>
       <c r="D101" s="21"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="20"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
       <c r="L101" s="20"/>
@@ -6765,12 +6793,12 @@
         <v>101</v>
       </c>
       <c r="D102" s="21"/>
-      <c r="E102" s="19"/>
+      <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
       <c r="H102" s="19"/>
       <c r="I102" s="20"/>
-      <c r="J102" s="4"/>
+      <c r="J102" s="20"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
       <c r="M102" s="20"/>
@@ -6781,12 +6809,12 @@
         <v>102</v>
       </c>
       <c r="D103" s="21"/>
-      <c r="E103" s="19"/>
+      <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
       <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="4"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
       <c r="K103" s="20"/>
       <c r="L103" s="20"/>
       <c r="M103" s="20"/>
@@ -6801,8 +6829,8 @@
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
       <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="4"/>
       <c r="K104" s="20"/>
       <c r="L104" s="20"/>
       <c r="M104" s="20"/>
@@ -6818,7 +6846,7 @@
       <c r="G105" s="20"/>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="J105" s="4"/>
       <c r="K105" s="20"/>
       <c r="L105" s="20"/>
       <c r="M105" s="20"/>
@@ -6878,10 +6906,10 @@
       </c>
       <c r="D109" s="21"/>
       <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
       <c r="H109" s="19"/>
-      <c r="I109" s="4"/>
+      <c r="I109" s="19"/>
       <c r="J109" s="20"/>
       <c r="K109" s="20"/>
       <c r="L109" s="20"/>
@@ -6893,12 +6921,12 @@
       </c>
       <c r="D110" s="21"/>
       <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
       <c r="H110" s="19"/>
-      <c r="I110" s="4"/>
+      <c r="I110" s="19"/>
       <c r="J110" s="20"/>
-      <c r="K110" s="4"/>
+      <c r="K110" s="20"/>
       <c r="L110" s="20"/>
       <c r="M110" s="20"/>
     </row>
@@ -6908,13 +6936,13 @@
       </c>
       <c r="D111" s="21"/>
       <c r="E111" s="19"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
       <c r="H111" s="19"/>
       <c r="I111" s="4"/>
       <c r="J111" s="20"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
       <c r="M111" s="20"/>
     </row>
     <row r="112" spans="3:14">
@@ -6929,20 +6957,20 @@
       <c r="I112" s="4"/>
       <c r="J112" s="20"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
+      <c r="L112" s="20"/>
       <c r="M112" s="20"/>
     </row>
     <row r="113" spans="3:13">
       <c r="C113" s="4">
         <v>112</v>
       </c>
-      <c r="D113" s="13"/>
+      <c r="D113" s="21"/>
       <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
       <c r="H113" s="19"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
+      <c r="J113" s="20"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="20"/>
@@ -6951,13 +6979,13 @@
       <c r="C114" s="4">
         <v>113</v>
       </c>
-      <c r="D114" s="18"/>
+      <c r="D114" s="21"/>
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
       <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
+      <c r="J114" s="20"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="20"/>
@@ -6981,7 +7009,7 @@
       <c r="C116" s="4">
         <v>115</v>
       </c>
-      <c r="D116" s="13"/>
+      <c r="D116" s="18"/>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
@@ -7000,7 +7028,7 @@
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
-      <c r="H117" s="22"/>
+      <c r="H117" s="19"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -7011,11 +7039,11 @@
       <c r="C118" s="4">
         <v>117</v>
       </c>
-      <c r="D118" s="18"/>
+      <c r="D118" s="13"/>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
-      <c r="H118" s="22"/>
+      <c r="H118" s="19"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
@@ -7026,11 +7054,11 @@
       <c r="C119" s="4">
         <v>118</v>
       </c>
-      <c r="D119" s="18"/>
+      <c r="D119" s="13"/>
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
+      <c r="H119" s="22"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
@@ -7043,9 +7071,9 @@
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="19"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="22"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -7073,8 +7101,8 @@
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
       <c r="H122" s="19"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -7110,7 +7138,7 @@
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
+      <c r="M124" s="20"/>
     </row>
     <row r="125" spans="3:13">
       <c r="C125" s="4">
@@ -7125,7 +7153,7 @@
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
+      <c r="M125" s="20"/>
     </row>
     <row r="126" spans="3:13">
       <c r="C126" s="4">
@@ -7165,7 +7193,7 @@
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
-      <c r="H128" s="22"/>
+      <c r="H128" s="19"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
@@ -7180,7 +7208,7 @@
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
-      <c r="H129" s="22"/>
+      <c r="H129" s="19"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
@@ -7210,7 +7238,7 @@
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
+      <c r="H131" s="22"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
@@ -7223,9 +7251,9 @@
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="19"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="22"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
@@ -7240,7 +7268,7 @@
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
-      <c r="H133" s="4"/>
+      <c r="H133" s="19"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
@@ -7285,7 +7313,7 @@
       <c r="E136" s="19"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="14"/>
+      <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
@@ -7297,9 +7325,9 @@
         <v>136</v>
       </c>
       <c r="D137" s="18"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
@@ -7312,7 +7340,7 @@
         <v>137</v>
       </c>
       <c r="D138" s="18"/>
-      <c r="E138" s="14"/>
+      <c r="E138" s="19"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="14"/>
@@ -7343,8 +7371,8 @@
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
       <c r="H140" s="14"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -7357,10 +7385,10 @@
         <v>140</v>
       </c>
       <c r="D141" s="18"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="19"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
@@ -7372,10 +7400,10 @@
         <v>141</v>
       </c>
       <c r="D142" s="18"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="4"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
@@ -7388,8 +7416,8 @@
       </c>
       <c r="D143" s="18"/>
       <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
       <c r="H143" s="19"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
@@ -7403,9 +7431,9 @@
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="19"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
@@ -7420,7 +7448,7 @@
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
       <c r="G145" s="19"/>
-      <c r="H145" s="4"/>
+      <c r="H145" s="19"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
@@ -7433,8 +7461,8 @@
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
       <c r="H146" s="19"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -7448,9 +7476,9 @@
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="19"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
@@ -7465,7 +7493,7 @@
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
       <c r="G148" s="19"/>
-      <c r="H148" s="4"/>
+      <c r="H148" s="19"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -7478,8 +7506,8 @@
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
       <c r="H149" s="19"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -7493,9 +7521,9 @@
       </c>
       <c r="D150" s="18"/>
       <c r="E150" s="19"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
@@ -7510,7 +7538,7 @@
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
-      <c r="H151" s="4"/>
+      <c r="H151" s="19"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
@@ -7521,8 +7549,8 @@
       <c r="C152" s="4"/>
       <c r="D152" s="18"/>
       <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
       <c r="H152" s="19"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
@@ -7534,9 +7562,9 @@
       <c r="C153" s="4"/>
       <c r="D153" s="18"/>
       <c r="E153" s="19"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
@@ -7549,7 +7577,7 @@
       <c r="E154" s="19"/>
       <c r="F154" s="19"/>
       <c r="G154" s="19"/>
-      <c r="H154" s="4"/>
+      <c r="H154" s="19"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
@@ -7560,8 +7588,8 @@
       <c r="C155" s="4"/>
       <c r="D155" s="18"/>
       <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
       <c r="H155" s="19"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -7573,9 +7601,9 @@
       <c r="C156" s="4"/>
       <c r="D156" s="18"/>
       <c r="E156" s="19"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
@@ -7588,7 +7616,7 @@
       <c r="E157" s="19"/>
       <c r="F157" s="19"/>
       <c r="G157" s="19"/>
-      <c r="H157" s="4"/>
+      <c r="H157" s="19"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
@@ -7599,8 +7627,8 @@
       <c r="C158" s="4"/>
       <c r="D158" s="18"/>
       <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
       <c r="H158" s="19"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
@@ -7612,9 +7640,9 @@
       <c r="C159" s="4"/>
       <c r="D159" s="18"/>
       <c r="E159" s="19"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
@@ -7627,211 +7655,229 @@
       <c r="E160" s="19"/>
       <c r="F160" s="19"/>
       <c r="G160" s="19"/>
-      <c r="H160" s="4"/>
+      <c r="H160" s="19"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
-    </row>
-    <row r="161" spans="3:12">
+      <c r="M160" s="4"/>
+    </row>
+    <row r="161" spans="3:13">
       <c r="C161" s="4"/>
       <c r="D161" s="18"/>
       <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
       <c r="H161" s="19"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
-    </row>
-    <row r="162" spans="3:12">
+      <c r="M161" s="4"/>
+    </row>
+    <row r="162" spans="3:13">
       <c r="C162" s="4"/>
       <c r="D162" s="18"/>
       <c r="E162" s="19"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" spans="3:12">
+    <row r="163" spans="3:13">
       <c r="C163" s="4"/>
       <c r="D163" s="18"/>
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
       <c r="G163" s="19"/>
-      <c r="H163" s="4"/>
+      <c r="H163" s="19"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" spans="3:12">
+    <row r="164" spans="3:13">
       <c r="C164" s="4"/>
       <c r="D164" s="18"/>
       <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
       <c r="H164" s="19"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
     </row>
-    <row r="165" spans="3:12">
+    <row r="165" spans="3:13">
       <c r="C165" s="4"/>
       <c r="D165" s="18"/>
       <c r="E165" s="19"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
     </row>
-    <row r="166" spans="3:12">
+    <row r="166" spans="3:13">
       <c r="C166" s="4"/>
       <c r="D166" s="18"/>
       <c r="E166" s="19"/>
       <c r="F166" s="19"/>
       <c r="G166" s="19"/>
-      <c r="H166" s="4"/>
+      <c r="H166" s="19"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="3:12">
+    <row r="167" spans="3:13">
       <c r="C167" s="4"/>
       <c r="D167" s="18"/>
       <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
       <c r="H167" s="19"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
     </row>
-    <row r="168" spans="3:12">
+    <row r="168" spans="3:13">
       <c r="C168" s="4"/>
       <c r="D168" s="18"/>
       <c r="E168" s="19"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
     </row>
-    <row r="169" spans="3:12">
+    <row r="169" spans="3:13">
       <c r="C169" s="4"/>
       <c r="D169" s="18"/>
       <c r="E169" s="19"/>
       <c r="F169" s="19"/>
       <c r="G169" s="19"/>
-      <c r="H169" s="4"/>
+      <c r="H169" s="19"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
       <c r="L169" s="4"/>
     </row>
-    <row r="170" spans="3:12">
+    <row r="170" spans="3:13">
       <c r="C170" s="4"/>
       <c r="D170" s="18"/>
       <c r="E170" s="19"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
       <c r="H170" s="19"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" spans="3:12">
+    <row r="171" spans="3:13">
       <c r="C171" s="4"/>
       <c r="D171" s="18"/>
       <c r="E171" s="19"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" spans="3:12">
+    <row r="172" spans="3:13">
       <c r="C172" s="4"/>
       <c r="D172" s="18"/>
       <c r="E172" s="19"/>
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
-      <c r="H172" s="4"/>
+      <c r="H172" s="19"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
     </row>
-    <row r="173" spans="3:12">
+    <row r="173" spans="3:13">
       <c r="C173" s="4"/>
       <c r="D173" s="18"/>
       <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
       <c r="H173" s="19"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
     </row>
-    <row r="174" spans="3:12">
+    <row r="174" spans="3:13">
       <c r="C174" s="4"/>
       <c r="D174" s="18"/>
       <c r="E174" s="19"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
     </row>
-    <row r="175" spans="3:12">
+    <row r="175" spans="3:13">
       <c r="C175" s="4"/>
       <c r="D175" s="18"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
+      <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="3:12">
+    <row r="176" spans="3:13">
       <c r="C176" s="4"/>
       <c r="D176" s="18"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="4"/>
       <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
       <c r="L176" s="4"/>
     </row>
     <row r="177" spans="3:12">
       <c r="C177" s="4"/>
       <c r="D177" s="18"/>
       <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
       <c r="L177" s="4"/>
     </row>
     <row r="178" spans="3:12">
       <c r="C178" s="4"/>
       <c r="D178" s="18"/>
       <c r="J178" s="4"/>
+      <c r="L178" s="4"/>
     </row>
     <row r="179" spans="3:12">
       <c r="C179" s="4"/>
       <c r="D179" s="18"/>
+      <c r="J179" s="4"/>
+      <c r="L179" s="4"/>
     </row>
     <row r="180" spans="3:12">
       <c r="C180" s="4"/>
       <c r="D180" s="18"/>
+      <c r="J180" s="4"/>
     </row>
     <row r="181" spans="3:12">
       <c r="C181" s="4"/>
@@ -7839,9 +7885,11 @@
     </row>
     <row r="182" spans="3:12">
       <c r="C182" s="4"/>
+      <c r="D182" s="18"/>
     </row>
     <row r="183" spans="3:12">
       <c r="C183" s="4"/>
+      <c r="D183" s="18"/>
     </row>
     <row r="184" spans="3:12">
       <c r="C184" s="4"/>
@@ -7893,16 +7941,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D181 D108:D112 D99 D80:D96 D118:D143 D56:D73 D145 D148 D151 D154 D157 D160 D163 D166 D169 D172 D175 D178 D35:D38 D12:D24 D7:D10 D30:D33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D183 D110:D114 D101 D82:D98 D120:D145 D58:D75 D147 D150 D153 D156 D159 D162 D165 D168 D171 D174 D177 D180 D37:D40 D32:D35 D7:D10 D12:D24">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F176">
       <formula1>OFFSET(INDIRECT($E3),0,0,COUNTA(INDIRECT(E3&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G176">
       <formula1>INDIRECT(SUBSTITUTE(E3&amp;F3," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E176">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
